--- a/CurrentScripts/CA/deprecated/budgetline items.xlsx
+++ b/CurrentScripts/CA/deprecated/budgetline items.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasrusso/Desktop/dd-Data3.0/CurrentScripts/CA/deprecated/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -51,30 +59,6 @@
     <t>General Obligation Bonds-K-12</t>
   </si>
   <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0954.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6100.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6120.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6125.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6255.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6300.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6350.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6360.pdf</t>
-  </si>
-  <si>
     <t>K thru 12 Education</t>
   </si>
   <si>
@@ -123,30 +107,6 @@
     <t>General Obligation Bonds-Hi Ed</t>
   </si>
   <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6440.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6445.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6600.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6610.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6645.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6870.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6910.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6980.pdf</t>
-  </si>
-  <si>
     <t>Health, Human Services Agency, Secy</t>
   </si>
   <si>
@@ -777,517 +737,565 @@
     <t>0010</t>
   </si>
   <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0530.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4100.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4120.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4140.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4150.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4170.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4180.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4185.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4250.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4260.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4265.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4280.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4300.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4440.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4560.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4700.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4800.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5160.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5170.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5175.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5180.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5195.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5196.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/5210/5225.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/5210/5227.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/5210/5420.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0521.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2600.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2640.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2660.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2665.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2670.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2720.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2740.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0540.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3100.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3110.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3125.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3210.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3340.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3360.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3370.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3460.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3480.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3540.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3560.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3600.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3640.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3720.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3760.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3780.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3790.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3810.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3820.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3825.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3830.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3835.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3840.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3845.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3850.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3855.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3860.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3875.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3885.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0555.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3900.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3930.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3940.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3960.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3970.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3980.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0515.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1110.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1111.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1690.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1700.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1701.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1750.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/2100.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/2120.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/2240.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0559.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7100.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7120.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7300.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7320.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7350.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0511.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7501.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7502.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7503.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7730.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7760.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7870.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7900.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7910.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7920.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8120.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8140.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8260.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/83850.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8420.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8570.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8620.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8640.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8660.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8780.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8790.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8820.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8830.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8855.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8860.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8880.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8885.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8940.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8955.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9100.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9210.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9285.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9300.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9350.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9600.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9610.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9612.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9620.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9625.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9650.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9651.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9670.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9800.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9818.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9840.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9860.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9885.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9900.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9909.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0110.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0120.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0130.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0150.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0160.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0250.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0280.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0390.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0500.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0590.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0552.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0650.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0690.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0750.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0820.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0840.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0845.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0850.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0855.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0860.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0890.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0911.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0950.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0956.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0959.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0964.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0965.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0968.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0971.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0974.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0977.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0983.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0984.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0985.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0989.pdf</t>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0954.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6100.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6120.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6125.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6255.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6300.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6350.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6360.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6440.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6445.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6600.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6610.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6645.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6870.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6910.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/6000/6980.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0530.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4100.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4120.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4140.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4150.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4170.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4180.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4185.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4250.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4260.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4265.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4280.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4300.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4440.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4560.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4700.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/4800.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/5160.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/5170.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/5175.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/5180.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/5195.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/4000/5196.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/5210/5225.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/5210/5227.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/5210/5420.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0521.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/2500/2600.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/2500/2640.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/2500/2660.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/2500/2665.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/2500/2670.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/2500/2720.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/2500/2740.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0540.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3100.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3110.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3125.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3210.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3340.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3360.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3370.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3460.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3480.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3540.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3560.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3600.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3640.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3720.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3760.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3780.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3790.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3810.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3820.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3825.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3830.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3835.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3840.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3845.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3850.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3855.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3860.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3875.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3000/3885.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0555.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3890/3900.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3890/3930.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3890/3940.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3890/3960.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3890/3970.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/3890/3980.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0515.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/1000/1110.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/1000/1111.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/1000/1690.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/1000/1700.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/1000/1701.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/1000/1750.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/1000/2100.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/1000/2120.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/1000/2240.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0559.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7000/7100.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7000/7120.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7000/7300.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7000/7320.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7000/7350.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0511.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7500/7501.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7500/7502.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7500/7503.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7500/7730.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7500/7760.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7500/7870.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7500/7900.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7500/7910.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/7500/7920.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8120.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8140.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8260.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/83850.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8420.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8570.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8620.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8640.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8660.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8780.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8790.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8820.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8830.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8855.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8860.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8880.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8885.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8940.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/8955.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9100.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9210.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9285.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9300.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9350.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9600.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9610.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9612.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9620.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9625.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9650.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9651.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9670.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9800.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9818.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9840.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9860.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9885.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9900.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/8000/9909.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0110.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0120.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0130.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0150.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0160.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0250.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0280.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0390.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0500.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0590.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0552.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0650.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0690.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0750.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0820.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0840.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0845.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0850.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0855.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0860.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0890.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0911.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0950.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0956.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0959.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0964.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0965.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0968.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0971.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0974.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0977.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0983.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0984.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0985.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ebudget.ca.gov/2018-19/pdf/GovernorsBudget/0010/0989.pdf</t>
   </si>
 </sst>
 </file>
@@ -1425,6 +1433,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1752,12 +1765,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="3" customWidth="1"/>
@@ -1765,21 +1778,21 @@
     <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="40">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1787,9 +1800,9 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>6000</v>
@@ -1801,12 +1814,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="B3" s="5">
         <v>6000</v>
@@ -1818,12 +1831,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>6000</v>
@@ -1835,12 +1848,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>6000</v>
@@ -1852,12 +1865,12 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>6000</v>
@@ -1869,12 +1882,12 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
         <v>6000</v>
@@ -1886,12 +1899,12 @@
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
         <v>6000</v>
@@ -1904,9 +1917,9 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1">
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5">
         <v>6000</v>
@@ -1918,12 +1931,12 @@
         <v>7</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
         <v>6000</v>
@@ -1935,12 +1948,12 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>6000</v>
@@ -1953,9 +1966,9 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1">
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>6000</v>
@@ -1964,15 +1977,15 @@
         <v>6440</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>6000</v>
@@ -1981,15 +1994,15 @@
         <v>6445</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5">
         <v>6000</v>
@@ -1998,15 +2011,15 @@
         <v>6600</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="4" customFormat="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5">
         <v>6000</v>
@@ -2015,15 +2028,15 @@
         <v>6610</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="4" customFormat="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5">
         <v>6000</v>
@@ -2032,15 +2045,15 @@
         <v>6645</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5">
         <v>6000</v>
@@ -2049,15 +2062,15 @@
         <v>6870</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5">
         <v>6000</v>
@@ -2066,13 +2079,13 @@
         <v>6874</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1">
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5">
         <v>6000</v>
@@ -2081,13 +2094,13 @@
         <v>6878</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1">
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B20" s="5">
         <v>6000</v>
@@ -2096,15 +2109,15 @@
         <v>6910</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B21" s="5">
         <v>6000</v>
@@ -2113,15 +2126,15 @@
         <v>6980</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B22" s="5">
         <v>6000</v>
@@ -2130,30 +2143,30 @@
         <v>7996</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1">
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C23" s="6">
         <v>530</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1">
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5">
         <v>4000</v>
@@ -2162,15 +2175,15 @@
         <v>4100</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1">
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5">
         <v>4000</v>
@@ -2179,15 +2192,15 @@
         <v>4120</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1">
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5">
         <v>4000</v>
@@ -2196,15 +2209,15 @@
         <v>4140</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1">
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5">
         <v>4000</v>
@@ -2213,15 +2226,15 @@
         <v>4150</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1">
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B28" s="5">
         <v>4000</v>
@@ -2230,15 +2243,15 @@
         <v>4170</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1">
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5">
         <v>4000</v>
@@ -2247,15 +2260,15 @@
         <v>4180</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1">
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B30" s="5">
         <v>4000</v>
@@ -2264,15 +2277,15 @@
         <v>4185</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1">
+    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5">
         <v>4000</v>
@@ -2281,15 +2294,15 @@
         <v>4250</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1">
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B32" s="5">
         <v>4000</v>
@@ -2298,15 +2311,15 @@
         <v>4260</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1">
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B33" s="5">
         <v>4000</v>
@@ -2315,15 +2328,15 @@
         <v>4265</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1">
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B34" s="5">
         <v>4000</v>
@@ -2332,15 +2345,15 @@
         <v>4280</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1">
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B35" s="5">
         <v>4000</v>
@@ -2349,15 +2362,15 @@
         <v>4300</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B36" s="5">
         <v>4000</v>
@@ -2366,15 +2379,15 @@
         <v>4440</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1">
+    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B37" s="5">
         <v>4000</v>
@@ -2383,15 +2396,15 @@
         <v>4560</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1">
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B38" s="5">
         <v>4000</v>
@@ -2400,15 +2413,15 @@
         <v>4700</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1">
+    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B39" s="5">
         <v>4000</v>
@@ -2417,15 +2430,15 @@
         <v>4800</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1">
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B40" s="5">
         <v>4000</v>
@@ -2434,15 +2447,15 @@
         <v>5160</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1">
+    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B41" s="5">
         <v>4000</v>
@@ -2451,15 +2464,15 @@
         <v>5170</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="4" customFormat="1">
+    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B42" s="5">
         <v>4000</v>
@@ -2468,15 +2481,15 @@
         <v>5175</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1">
+    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B43" s="5">
         <v>4000</v>
@@ -2485,15 +2498,15 @@
         <v>5180</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="4" customFormat="1">
+    <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B44" s="5">
         <v>4000</v>
@@ -2502,15 +2515,15 @@
         <v>5195</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1">
+    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B45" s="5">
         <v>4000</v>
@@ -2519,15 +2532,15 @@
         <v>5196</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="4" customFormat="1">
+    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5">
         <v>4000</v>
@@ -2536,13 +2549,13 @@
         <v>5206</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" s="4" customFormat="1">
+    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B47" s="5">
         <v>4000</v>
@@ -2551,13 +2564,13 @@
         <v>5209</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" s="4" customFormat="1">
+    <row r="48" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B48" s="5">
         <v>5210</v>
@@ -2566,15 +2579,15 @@
         <v>5225</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="4" customFormat="1">
+    <row r="49" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B49" s="5">
         <v>5210</v>
@@ -2583,15 +2596,15 @@
         <v>5227</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1">
+    <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B50" s="5">
         <v>5210</v>
@@ -2600,13 +2613,13 @@
         <v>5296</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1">
+    <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B51" s="5">
         <v>5210</v>
@@ -2615,13 +2628,13 @@
         <v>5396</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1">
+    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B52" s="5">
         <v>5210</v>
@@ -2630,15 +2643,15 @@
         <v>5420</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1">
+    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5">
         <v>5210</v>
@@ -2647,13 +2660,13 @@
         <v>5496</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1">
+    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B54" s="5">
         <v>5210</v>
@@ -2662,13 +2675,13 @@
         <v>5596</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" s="4" customFormat="1">
+    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B55" s="5">
         <v>5210</v>
@@ -2677,13 +2690,13 @@
         <v>5696</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" s="4" customFormat="1">
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B56" s="5">
         <v>5210</v>
@@ -2692,13 +2705,13 @@
         <v>5796</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" s="4" customFormat="1">
+    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B57" s="5">
         <v>5210</v>
@@ -2707,13 +2720,13 @@
         <v>5990</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" s="4" customFormat="1">
+    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>5210</v>
@@ -2722,30 +2735,30 @@
         <v>5996</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1">
+    <row r="59" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C59" s="6">
         <v>521</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1">
+    <row r="60" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B60" s="5">
         <v>2500</v>
@@ -2754,15 +2767,15 @@
         <v>2600</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1">
+    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B61" s="5">
         <v>2500</v>
@@ -2771,15 +2784,15 @@
         <v>2640</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="4" customFormat="1">
+    <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B62" s="5">
         <v>2500</v>
@@ -2788,15 +2801,15 @@
         <v>2660</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="4" customFormat="1">
+    <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B63" s="5">
         <v>2500</v>
@@ -2805,15 +2818,15 @@
         <v>2665</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="4" customFormat="1">
+    <row r="64" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B64" s="5">
         <v>2500</v>
@@ -2822,15 +2835,15 @@
         <v>2670</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="4" customFormat="1">
+    <row r="65" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B65" s="5">
         <v>2500</v>
@@ -2839,15 +2852,15 @@
         <v>2720</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="4" customFormat="1">
+    <row r="66" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B66" s="5">
         <v>2500</v>
@@ -2856,15 +2869,15 @@
         <v>2740</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1">
+    <row r="67" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B67" s="5">
         <v>2500</v>
@@ -2873,30 +2886,30 @@
         <v>2830</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" s="10" customFormat="1">
+    <row r="68" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C68" s="6">
         <v>540</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="10" customFormat="1">
+    <row r="69" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B69" s="13">
         <v>3000</v>
@@ -2905,15 +2918,15 @@
         <v>3100</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="10" customFormat="1">
+    <row r="70" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B70" s="13">
         <v>3000</v>
@@ -2922,15 +2935,15 @@
         <v>3110</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="10" customFormat="1">
+    <row r="71" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B71" s="13">
         <v>3000</v>
@@ -2939,15 +2952,15 @@
         <v>3125</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="10" customFormat="1">
+    <row r="72" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B72" s="13">
         <v>3000</v>
@@ -2956,15 +2969,15 @@
         <v>3210</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="10" customFormat="1">
+    <row r="73" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B73" s="13">
         <v>3000</v>
@@ -2973,15 +2986,15 @@
         <v>3340</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="10" customFormat="1">
+    <row r="74" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B74" s="13">
         <v>3000</v>
@@ -2990,15 +3003,15 @@
         <v>3360</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="10" customFormat="1">
+    <row r="75" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B75" s="13">
         <v>3000</v>
@@ -3007,15 +3020,15 @@
         <v>3370</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="10" customFormat="1">
+    <row r="76" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B76" s="13">
         <v>3000</v>
@@ -3024,15 +3037,15 @@
         <v>3460</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="10" customFormat="1">
+    <row r="77" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B77" s="13">
         <v>3000</v>
@@ -3041,15 +3054,15 @@
         <v>3480</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="10" customFormat="1">
+    <row r="78" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B78" s="13">
         <v>3000</v>
@@ -3058,15 +3071,15 @@
         <v>3540</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="10" customFormat="1">
+    <row r="79" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B79" s="13">
         <v>3000</v>
@@ -3075,15 +3088,15 @@
         <v>3560</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="10" customFormat="1">
+    <row r="80" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B80" s="13">
         <v>3000</v>
@@ -3092,15 +3105,15 @@
         <v>3600</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="10" customFormat="1">
+    <row r="81" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B81" s="13">
         <v>3000</v>
@@ -3109,15 +3122,15 @@
         <v>3640</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="10" customFormat="1">
+    <row r="82" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B82" s="13">
         <v>3000</v>
@@ -3126,15 +3139,15 @@
         <v>3720</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="10" customFormat="1">
+    <row r="83" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B83" s="13">
         <v>3000</v>
@@ -3143,15 +3156,15 @@
         <v>3760</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="10" customFormat="1">
+    <row r="84" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B84" s="13">
         <v>3000</v>
@@ -3160,15 +3173,15 @@
         <v>3780</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="10" customFormat="1">
+    <row r="85" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B85" s="13">
         <v>3000</v>
@@ -3177,15 +3190,15 @@
         <v>3790</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="10" customFormat="1">
+    <row r="86" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B86" s="13">
         <v>3000</v>
@@ -3194,15 +3207,15 @@
         <v>3810</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="10" customFormat="1">
+    <row r="87" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B87" s="13">
         <v>3000</v>
@@ -3211,15 +3224,15 @@
         <v>3820</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="10" customFormat="1">
+    <row r="88" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B88" s="13">
         <v>3000</v>
@@ -3228,15 +3241,15 @@
         <v>3825</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="10" customFormat="1">
+    <row r="89" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B89" s="13">
         <v>3000</v>
@@ -3245,15 +3258,15 @@
         <v>3830</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="10" customFormat="1">
+    <row r="90" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B90" s="13">
         <v>3000</v>
@@ -3262,15 +3275,15 @@
         <v>3835</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="10" customFormat="1">
+    <row r="91" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B91" s="13">
         <v>3000</v>
@@ -3279,15 +3292,15 @@
         <v>3840</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="10" customFormat="1">
+    <row r="92" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B92" s="13">
         <v>3000</v>
@@ -3296,15 +3309,15 @@
         <v>3845</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="10" customFormat="1">
+    <row r="93" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B93" s="13">
         <v>3000</v>
@@ -3313,15 +3326,15 @@
         <v>3850</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="10" customFormat="1">
+    <row r="94" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B94" s="13">
         <v>3000</v>
@@ -3330,15 +3343,15 @@
         <v>3855</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="10" customFormat="1">
+    <row r="95" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B95" s="13">
         <v>3000</v>
@@ -3347,15 +3360,15 @@
         <v>3860</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="10" customFormat="1">
+    <row r="96" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B96" s="13">
         <v>3000</v>
@@ -3364,15 +3377,15 @@
         <v>3875</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="10" customFormat="1">
+    <row r="97" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B97" s="13">
         <v>3000</v>
@@ -3381,13 +3394,13 @@
         <v>3882</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E97" s="12"/>
     </row>
-    <row r="98" spans="1:5" s="10" customFormat="1">
+    <row r="98" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B98" s="13">
         <v>3000</v>
@@ -3396,32 +3409,32 @@
         <v>3885</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="4" customFormat="1">
+    <row r="99" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C99" s="6">
         <v>555</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="4" customFormat="1">
+    <row r="100" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B100" s="5">
         <v>3890</v>
@@ -3430,15 +3443,15 @@
         <v>3900</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="4" customFormat="1">
+    <row r="101" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B101" s="5">
         <v>3890</v>
@@ -3447,15 +3460,15 @@
         <v>3930</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="4" customFormat="1">
+    <row r="102" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B102" s="5">
         <v>3890</v>
@@ -3464,15 +3477,15 @@
         <v>3940</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="4" customFormat="1">
+    <row r="103" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B103" s="5">
         <v>3890</v>
@@ -3481,15 +3494,15 @@
         <v>3960</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="4" customFormat="1">
+    <row r="104" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B104" s="5">
         <v>3890</v>
@@ -3498,15 +3511,15 @@
         <v>3970</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="4" customFormat="1">
+    <row r="105" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B105" s="5">
         <v>3890</v>
@@ -3515,15 +3528,15 @@
         <v>3980</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1">
+    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B106" s="5">
         <v>3890</v>
@@ -3532,30 +3545,30 @@
         <v>3996</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" s="4" customFormat="1">
+    <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C107" s="6">
         <v>515</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="4" customFormat="1">
+    <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B108" s="5">
         <v>1000</v>
@@ -3564,15 +3577,15 @@
         <v>1110</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="4" customFormat="1">
+    <row r="109" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B109" s="5">
         <v>1000</v>
@@ -3581,15 +3594,15 @@
         <v>1111</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="4" customFormat="1">
+    <row r="110" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B110" s="5">
         <v>1000</v>
@@ -3598,15 +3611,15 @@
         <v>1690</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="4" customFormat="1">
+    <row r="111" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B111" s="5">
         <v>1000</v>
@@ -3615,15 +3628,15 @@
         <v>1700</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="4" customFormat="1">
+    <row r="112" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B112" s="5">
         <v>1000</v>
@@ -3632,15 +3645,15 @@
         <v>1701</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1">
+    <row r="113" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B113" s="5">
         <v>1000</v>
@@ -3649,15 +3662,15 @@
         <v>1750</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="4" customFormat="1">
+    <row r="114" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B114" s="5">
         <v>1000</v>
@@ -3666,13 +3679,13 @@
         <v>1996</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" s="4" customFormat="1">
+    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B115" s="5">
         <v>1000</v>
@@ -3681,15 +3694,15 @@
         <v>2100</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="4" customFormat="1">
+    <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B116" s="5">
         <v>1000</v>
@@ -3698,15 +3711,15 @@
         <v>2120</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="4" customFormat="1">
+    <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B117" s="5">
         <v>1000</v>
@@ -3715,32 +3728,32 @@
         <v>2240</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="4" customFormat="1">
+    <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C118" s="6">
         <v>559</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="4" customFormat="1">
+    <row r="119" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B119" s="5">
         <v>7000</v>
@@ -3749,15 +3762,15 @@
         <v>7100</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="4" customFormat="1">
+    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B120" s="5">
         <v>7000</v>
@@ -3766,15 +3779,15 @@
         <v>7120</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="4" customFormat="1">
+    <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B121" s="5">
         <v>7000</v>
@@ -3783,15 +3796,15 @@
         <v>7300</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="4" customFormat="1">
+    <row r="122" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B122" s="5">
         <v>7000</v>
@@ -3800,15 +3813,15 @@
         <v>7320</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="4" customFormat="1">
+    <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B123" s="5">
         <v>7000</v>
@@ -3817,32 +3830,32 @@
         <v>7350</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="4" customFormat="1">
+    <row r="124" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C124" s="6">
         <v>511</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="4" customFormat="1">
+    <row r="125" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B125" s="5">
         <v>7500</v>
@@ -3851,15 +3864,15 @@
         <v>7501</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="4" customFormat="1">
+    <row r="126" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B126" s="5">
         <v>7500</v>
@@ -3868,15 +3881,15 @@
         <v>7502</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="4" customFormat="1">
+    <row r="127" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B127" s="5">
         <v>7500</v>
@@ -3885,15 +3898,15 @@
         <v>7503</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="4" customFormat="1">
+    <row r="128" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B128" s="5">
         <v>7500</v>
@@ -3902,15 +3915,15 @@
         <v>7730</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="4" customFormat="1">
+    <row r="129" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B129" s="5">
         <v>7500</v>
@@ -3919,15 +3932,15 @@
         <v>7760</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="4" customFormat="1">
+    <row r="130" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B130" s="5">
         <v>7500</v>
@@ -3936,15 +3949,15 @@
         <v>7870</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="4" customFormat="1">
+    <row r="131" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B131" s="5">
         <v>7500</v>
@@ -3953,15 +3966,15 @@
         <v>7900</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="4" customFormat="1">
+    <row r="132" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B132" s="5">
         <v>7500</v>
@@ -3970,15 +3983,15 @@
         <v>7910</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="4" customFormat="1">
+    <row r="133" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B133" s="5">
         <v>7500</v>
@@ -3987,15 +4000,15 @@
         <v>7920</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="4" customFormat="1">
+    <row r="134" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B134" s="5">
         <v>8000</v>
@@ -4004,15 +4017,15 @@
         <v>8120</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="4" customFormat="1">
+    <row r="135" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B135" s="5">
         <v>8000</v>
@@ -4021,15 +4034,15 @@
         <v>8140</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="4" customFormat="1">
+    <row r="136" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B136" s="5">
         <v>8000</v>
@@ -4038,15 +4051,15 @@
         <v>8260</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="4" customFormat="1">
+    <row r="137" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B137" s="5">
         <v>8000</v>
@@ -4055,15 +4068,15 @@
         <v>8385</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="4" customFormat="1">
+    <row r="138" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B138" s="5">
         <v>8000</v>
@@ -4072,15 +4085,15 @@
         <v>8420</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="4" customFormat="1">
+    <row r="139" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B139" s="5">
         <v>8000</v>
@@ -4089,15 +4102,15 @@
         <v>8570</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="4" customFormat="1">
+    <row r="140" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B140" s="5">
         <v>8000</v>
@@ -4106,15 +4119,15 @@
         <v>8620</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="4" customFormat="1">
+    <row r="141" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B141" s="5">
         <v>8000</v>
@@ -4123,15 +4136,15 @@
         <v>8640</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="4" customFormat="1">
+    <row r="142" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B142" s="5">
         <v>8000</v>
@@ -4140,15 +4153,15 @@
         <v>8660</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="4" customFormat="1">
+    <row r="143" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B143" s="5">
         <v>8000</v>
@@ -4157,15 +4170,15 @@
         <v>8780</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="4" customFormat="1">
+    <row r="144" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B144" s="5">
         <v>8000</v>
@@ -4174,15 +4187,15 @@
         <v>8790</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="4" customFormat="1">
+    <row r="145" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B145" s="5">
         <v>8000</v>
@@ -4191,15 +4204,15 @@
         <v>8820</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="4" customFormat="1">
+    <row r="146" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B146" s="5">
         <v>8000</v>
@@ -4208,15 +4221,15 @@
         <v>8830</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="4" customFormat="1">
+    <row r="147" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B147" s="5">
         <v>8000</v>
@@ -4225,15 +4238,15 @@
         <v>8855</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="4" customFormat="1">
+    <row r="148" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B148" s="5">
         <v>8000</v>
@@ -4242,15 +4255,15 @@
         <v>8860</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="4" customFormat="1">
+    <row r="149" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B149" s="5">
         <v>8000</v>
@@ -4259,15 +4272,15 @@
         <v>8880</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="4" customFormat="1">
+    <row r="150" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B150" s="5">
         <v>8000</v>
@@ -4276,15 +4289,15 @@
         <v>8885</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="4" customFormat="1">
+    <row r="151" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B151" s="5">
         <v>8000</v>
@@ -4293,15 +4306,15 @@
         <v>8940</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="4" customFormat="1">
+    <row r="152" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B152" s="5">
         <v>8000</v>
@@ -4310,13 +4323,13 @@
         <v>8951</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:5" s="4" customFormat="1">
+    <row r="153" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B153" s="5">
         <v>8000</v>
@@ -4325,15 +4338,15 @@
         <v>8955</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="4" customFormat="1">
+    <row r="154" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B154" s="5">
         <v>8000</v>
@@ -4342,13 +4355,13 @@
         <v>8998</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" s="4" customFormat="1">
+    <row r="155" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B155" s="5">
         <v>8000</v>
@@ -4357,15 +4370,15 @@
         <v>9100</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="4" customFormat="1">
+    <row r="156" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B156" s="5">
         <v>8000</v>
@@ -4374,15 +4387,15 @@
         <v>9210</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E156" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="4" customFormat="1">
+    <row r="157" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B157" s="5">
         <v>8000</v>
@@ -4391,15 +4404,15 @@
         <v>9285</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="4" customFormat="1">
+    <row r="158" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B158" s="5">
         <v>8000</v>
@@ -4408,15 +4421,15 @@
         <v>9300</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="4" customFormat="1">
+    <row r="159" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B159" s="5">
         <v>8000</v>
@@ -4425,15 +4438,15 @@
         <v>9350</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="4" customFormat="1">
+    <row r="160" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B160" s="5">
         <v>8000</v>
@@ -4442,15 +4455,15 @@
         <v>9600</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="4" customFormat="1">
+    <row r="161" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B161" s="5">
         <v>8000</v>
@@ -4459,15 +4472,15 @@
         <v>9610</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E161" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="4" customFormat="1">
+    <row r="162" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B162" s="5">
         <v>8000</v>
@@ -4476,15 +4489,15 @@
         <v>9612</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="4" customFormat="1">
+    <row r="163" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B163" s="5">
         <v>8000</v>
@@ -4493,13 +4506,13 @@
         <v>9618</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" s="4" customFormat="1">
+    <row r="164" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B164" s="5">
         <v>8000</v>
@@ -4508,15 +4521,15 @@
         <v>9620</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="4" customFormat="1">
+    <row r="165" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B165" s="5">
         <v>8000</v>
@@ -4525,15 +4538,15 @@
         <v>9625</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1">
+    <row r="166" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B166" s="5">
         <v>8000</v>
@@ -4542,15 +4555,15 @@
         <v>9650</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="4" customFormat="1">
+    <row r="167" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B167" s="5">
         <v>8000</v>
@@ -4559,15 +4572,15 @@
         <v>9651</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="4" customFormat="1">
+    <row r="168" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B168" s="5">
         <v>8000</v>
@@ -4576,15 +4589,15 @@
         <v>9658</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="4" customFormat="1">
+    <row r="169" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B169" s="5">
         <v>8000</v>
@@ -4593,15 +4606,15 @@
         <v>9670</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="4" customFormat="1">
+    <row r="170" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B170" s="5">
         <v>8000</v>
@@ -4610,15 +4623,15 @@
         <v>9800</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="4" customFormat="1">
+    <row r="171" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B171" s="5">
         <v>8000</v>
@@ -4627,13 +4640,13 @@
         <v>9802</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1">
+    <row r="172" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B172" s="5">
         <v>8000</v>
@@ -4642,15 +4655,15 @@
         <v>9818</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1">
+    <row r="173" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B173" s="5">
         <v>8000</v>
@@ -4659,15 +4672,15 @@
         <v>9840</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="4" customFormat="1">
+    <row r="174" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B174" s="5">
         <v>8000</v>
@@ -4676,15 +4689,15 @@
         <v>9860</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="4" customFormat="1">
+    <row r="175" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B175" s="5">
         <v>8000</v>
@@ -4693,15 +4706,15 @@
         <v>9885</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="4" customFormat="1">
+    <row r="176" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B176" s="5">
         <v>8000</v>
@@ -4710,13 +4723,13 @@
         <v>9894</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" s="4" customFormat="1">
+    <row r="177" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B177" s="5">
         <v>8000</v>
@@ -4725,13 +4738,13 @@
         <v>9897</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" s="4" customFormat="1">
+    <row r="178" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B178" s="5">
         <v>8000</v>
@@ -4740,13 +4753,13 @@
         <v>9898</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" s="4" customFormat="1">
+    <row r="179" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B179" s="5">
         <v>8000</v>
@@ -4755,15 +4768,15 @@
         <v>9900</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="4" customFormat="1">
+    <row r="180" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B180" s="5">
         <v>8000</v>
@@ -4772,13 +4785,13 @@
         <v>9901</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" s="4" customFormat="1">
+    <row r="181" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B181" s="5">
         <v>8000</v>
@@ -4787,15 +4800,15 @@
         <v>9909</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="4" customFormat="1">
+    <row r="182" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B182" s="5">
         <v>8000</v>
@@ -4804,13 +4817,13 @@
         <v>9910</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5" s="4" customFormat="1">
+    <row r="183" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B183" s="5">
         <v>8000</v>
@@ -4819,745 +4832,745 @@
         <v>9935</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5" s="4" customFormat="1">
+    <row r="184" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C184" s="6">
         <v>110</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E184" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="4" customFormat="1">
+    <row r="185" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C185" s="6">
         <v>120</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="4" customFormat="1">
+    <row r="186" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C186" s="6">
         <v>130</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="4" customFormat="1">
+    <row r="187" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C187" s="6">
         <v>150</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="4" customFormat="1">
+    <row r="188" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C188" s="6">
         <v>160</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="4" customFormat="1">
+    <row r="189" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C189" s="6">
         <v>250</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E189" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="4" customFormat="1">
+    <row r="190" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C190" s="6">
         <v>280</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E190" s="7" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="4" customFormat="1">
+    <row r="191" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C191" s="6">
         <v>390</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="4" customFormat="1">
+    <row r="192" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C192" s="6">
         <v>500</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E192" s="7" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="4" customFormat="1">
+    <row r="193" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C193" s="6">
         <v>509</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="4" customFormat="1">
+    <row r="194" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C194" s="6">
         <v>552</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="4" customFormat="1">
+    <row r="195" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C195" s="6">
         <v>650</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="4" customFormat="1">
+    <row r="196" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C196" s="6">
         <v>690</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E196" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="4" customFormat="1">
+    <row r="197" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C197" s="6">
         <v>750</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E197" s="7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="4" customFormat="1">
+    <row r="198" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C198" s="6">
         <v>820</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E198" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="4" customFormat="1">
+    <row r="199" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C199" s="6">
         <v>840</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E199" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="4" customFormat="1">
+    <row r="200" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C200" s="6">
         <v>845</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="4" customFormat="1">
+    <row r="201" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C201" s="6">
         <v>850</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="4" customFormat="1">
+    <row r="202" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C202" s="6">
         <v>855</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E202" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="4" customFormat="1">
+    <row r="203" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C203" s="6">
         <v>860</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E203" s="7" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="4" customFormat="1">
+    <row r="204" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C204" s="6">
         <v>890</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="4" customFormat="1">
+    <row r="205" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C205" s="6">
         <v>911</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="4" customFormat="1">
+    <row r="206" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C206" s="6">
         <v>950</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="4" customFormat="1">
+    <row r="207" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C207" s="6">
         <v>956</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="4" customFormat="1">
+    <row r="208" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C208" s="6">
         <v>959</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="4" customFormat="1">
+    <row r="209" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C209" s="6">
         <v>964</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E209" s="7" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="4" customFormat="1">
+    <row r="210" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C210" s="6">
         <v>965</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E210" s="7" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="4" customFormat="1">
+    <row r="211" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C211" s="6">
         <v>968</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E211" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="4" customFormat="1">
+    <row r="212" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C212" s="6">
         <v>971</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="4" customFormat="1">
+    <row r="213" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C213" s="6">
         <v>974</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="4" customFormat="1">
+    <row r="214" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C214" s="6">
         <v>977</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="4" customFormat="1">
+    <row r="215" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C215" s="6">
         <v>983</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="4" customFormat="1">
+    <row r="216" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C216" s="6">
         <v>984</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E216" s="7" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="4" customFormat="1">
+    <row r="217" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C217" s="6">
         <v>985</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="4" customFormat="1">
+    <row r="218" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C218" s="6">
         <v>989</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="4" customFormat="1">
+    <row r="219" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C219" s="6">
         <v>996</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5" s="4" customFormat="1">
+    <row r="220" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
     </row>
-    <row r="221" spans="1:5" s="4" customFormat="1">
+    <row r="221" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
     </row>
-    <row r="222" spans="1:5" s="4" customFormat="1">
+    <row r="222" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
     </row>
-    <row r="223" spans="1:5" s="4" customFormat="1">
+    <row r="223" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
     </row>
-    <row r="224" spans="1:5" s="4" customFormat="1">
+    <row r="224" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
     </row>
-    <row r="225" spans="2:3" s="4" customFormat="1">
+    <row r="225" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
     </row>
-    <row r="226" spans="2:3" s="4" customFormat="1">
+    <row r="226" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
     </row>
-    <row r="227" spans="2:3" s="4" customFormat="1">
+    <row r="227" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
     </row>
-    <row r="228" spans="2:3" s="4" customFormat="1">
+    <row r="228" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="2:3" s="4" customFormat="1">
+    <row r="229" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
     </row>
-    <row r="230" spans="2:3" s="4" customFormat="1">
+    <row r="230" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
     </row>
-    <row r="231" spans="2:3" s="4" customFormat="1">
+    <row r="231" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
     </row>
-    <row r="232" spans="2:3" s="4" customFormat="1">
+    <row r="232" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="2:3" s="4" customFormat="1">
+    <row r="233" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
     </row>
-    <row r="234" spans="2:3" s="4" customFormat="1">
+    <row r="234" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
     </row>
-    <row r="235" spans="2:3" s="4" customFormat="1">
+    <row r="235" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
     </row>
-    <row r="236" spans="2:3" s="4" customFormat="1">
+    <row r="236" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="2:3" s="4" customFormat="1">
+    <row r="237" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="2:3" s="4" customFormat="1">
+    <row r="238" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
     </row>
-    <row r="239" spans="2:3" s="4" customFormat="1">
+    <row r="239" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
     </row>
-    <row r="240" spans="2:3" s="4" customFormat="1">
+    <row r="240" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
     </row>
-    <row r="241" spans="2:3" s="4" customFormat="1">
+    <row r="241" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
     </row>
-    <row r="242" spans="2:3" s="4" customFormat="1">
+    <row r="242" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
     </row>
-    <row r="243" spans="2:3" s="4" customFormat="1">
+    <row r="243" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
     </row>
-    <row r="244" spans="2:3" s="4" customFormat="1">
+    <row r="244" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
     </row>
-    <row r="245" spans="2:3" s="4" customFormat="1">
+    <row r="245" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
     </row>
-    <row r="246" spans="2:3" s="4" customFormat="1">
+    <row r="246" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
     </row>
-    <row r="247" spans="2:3" s="4" customFormat="1">
+    <row r="247" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
     </row>
-    <row r="248" spans="2:3" s="4" customFormat="1">
+    <row r="248" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
     </row>
-    <row r="249" spans="2:3" s="4" customFormat="1">
+    <row r="249" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
     </row>
-    <row r="250" spans="2:3" s="4" customFormat="1">
+    <row r="250" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
     </row>
-    <row r="251" spans="2:3" s="4" customFormat="1">
+    <row r="251" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
     </row>
@@ -5574,13 +5587,13 @@
     <hyperlink ref="D7" r:id="rId6"/>
     <hyperlink ref="D9" r:id="rId7"/>
     <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="E3" r:id="rId9"/>
-    <hyperlink ref="E4" r:id="rId10"/>
-    <hyperlink ref="E5" r:id="rId11"/>
-    <hyperlink ref="E6" r:id="rId12"/>
-    <hyperlink ref="E7" r:id="rId13"/>
-    <hyperlink ref="E9" r:id="rId14"/>
-    <hyperlink ref="E10" r:id="rId15"/>
+    <hyperlink ref="E3" r:id="rId9" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6100.pdf"/>
+    <hyperlink ref="E4" r:id="rId10" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6120.pdf"/>
+    <hyperlink ref="E5" r:id="rId11" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6125.pdf"/>
+    <hyperlink ref="E6" r:id="rId12" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6255.pdf"/>
+    <hyperlink ref="E7" r:id="rId13" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6300.pdf"/>
+    <hyperlink ref="E9" r:id="rId14" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6350.pdf"/>
+    <hyperlink ref="E10" r:id="rId15" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6360.pdf"/>
     <hyperlink ref="D12" r:id="rId16"/>
     <hyperlink ref="D13" r:id="rId17"/>
     <hyperlink ref="D14" r:id="rId18"/>
@@ -5589,15 +5602,15 @@
     <hyperlink ref="D17" r:id="rId21"/>
     <hyperlink ref="D20" r:id="rId22"/>
     <hyperlink ref="D21" r:id="rId23"/>
-    <hyperlink ref="E12" r:id="rId24"/>
-    <hyperlink ref="E13" r:id="rId25"/>
-    <hyperlink ref="E14" r:id="rId26"/>
-    <hyperlink ref="E15" r:id="rId27"/>
-    <hyperlink ref="E16" r:id="rId28"/>
-    <hyperlink ref="E17" r:id="rId29"/>
-    <hyperlink ref="E20" r:id="rId30"/>
-    <hyperlink ref="E21" r:id="rId31"/>
-    <hyperlink ref="E23" r:id="rId32"/>
+    <hyperlink ref="E12" r:id="rId24" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6440.pdf"/>
+    <hyperlink ref="E13" r:id="rId25" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6445.pdf"/>
+    <hyperlink ref="E14" r:id="rId26" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6600.pdf"/>
+    <hyperlink ref="E15" r:id="rId27" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6610.pdf"/>
+    <hyperlink ref="E16" r:id="rId28" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6645.pdf"/>
+    <hyperlink ref="E17" r:id="rId29" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6870.pdf"/>
+    <hyperlink ref="E20" r:id="rId30" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6910.pdf"/>
+    <hyperlink ref="E21" r:id="rId31" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/6000/6980.pdf"/>
+    <hyperlink ref="E23" r:id="rId32" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0530.pdf"/>
     <hyperlink ref="D23" r:id="rId33"/>
     <hyperlink ref="D24" r:id="rId34"/>
     <hyperlink ref="D25" r:id="rId35"/>
@@ -5771,192 +5784,187 @@
     <hyperlink ref="D217" r:id="rId203"/>
     <hyperlink ref="D218" r:id="rId204"/>
     <hyperlink ref="E24:E45" r:id="rId205" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/530.pdf"/>
-    <hyperlink ref="E24" r:id="rId206"/>
-    <hyperlink ref="E25" r:id="rId207"/>
-    <hyperlink ref="E26" r:id="rId208"/>
-    <hyperlink ref="E27" r:id="rId209"/>
-    <hyperlink ref="E28" r:id="rId210"/>
-    <hyperlink ref="E29" r:id="rId211"/>
-    <hyperlink ref="E30" r:id="rId212"/>
-    <hyperlink ref="E31" r:id="rId213"/>
-    <hyperlink ref="E32" r:id="rId214"/>
-    <hyperlink ref="E33" r:id="rId215"/>
-    <hyperlink ref="E34" r:id="rId216"/>
-    <hyperlink ref="E35" r:id="rId217"/>
-    <hyperlink ref="E36" r:id="rId218"/>
-    <hyperlink ref="E37" r:id="rId219"/>
-    <hyperlink ref="E38" r:id="rId220"/>
-    <hyperlink ref="E39" r:id="rId221"/>
-    <hyperlink ref="E40" r:id="rId222"/>
-    <hyperlink ref="E41" r:id="rId223"/>
-    <hyperlink ref="E42" r:id="rId224"/>
-    <hyperlink ref="E43" r:id="rId225"/>
-    <hyperlink ref="E44" r:id="rId226"/>
-    <hyperlink ref="E45" r:id="rId227"/>
-    <hyperlink ref="E48" r:id="rId228"/>
-    <hyperlink ref="E49" r:id="rId229"/>
-    <hyperlink ref="E52" r:id="rId230"/>
-    <hyperlink ref="E59" r:id="rId231"/>
-    <hyperlink ref="E60" r:id="rId232"/>
+    <hyperlink ref="E24" r:id="rId206" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4100.pdf"/>
+    <hyperlink ref="E25" r:id="rId207" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4120.pdf"/>
+    <hyperlink ref="E26" r:id="rId208" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4140.pdf"/>
+    <hyperlink ref="E27" r:id="rId209" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4150.pdf"/>
+    <hyperlink ref="E28" r:id="rId210" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4170.pdf"/>
+    <hyperlink ref="E29" r:id="rId211" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4180.pdf"/>
+    <hyperlink ref="E30" r:id="rId212" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4185.pdf"/>
+    <hyperlink ref="E31" r:id="rId213" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4250.pdf"/>
+    <hyperlink ref="E32" r:id="rId214" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4260.pdf"/>
+    <hyperlink ref="E33" r:id="rId215" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4265.pdf"/>
+    <hyperlink ref="E34" r:id="rId216" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4280.pdf"/>
+    <hyperlink ref="E35" r:id="rId217" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4300.pdf"/>
+    <hyperlink ref="E36" r:id="rId218" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4440.pdf"/>
+    <hyperlink ref="E37" r:id="rId219" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4560.pdf"/>
+    <hyperlink ref="E38" r:id="rId220" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4700.pdf"/>
+    <hyperlink ref="E39" r:id="rId221" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/4800.pdf"/>
+    <hyperlink ref="E40" r:id="rId222" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5160.pdf"/>
+    <hyperlink ref="E41" r:id="rId223" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5170.pdf"/>
+    <hyperlink ref="E42" r:id="rId224" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5175.pdf"/>
+    <hyperlink ref="E43" r:id="rId225" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5180.pdf"/>
+    <hyperlink ref="E44" r:id="rId226" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5195.pdf"/>
+    <hyperlink ref="E45" r:id="rId227" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/4000/5196.pdf"/>
+    <hyperlink ref="E48" r:id="rId228" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/5210/5225.pdf"/>
+    <hyperlink ref="E49" r:id="rId229" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/5210/5227.pdf"/>
+    <hyperlink ref="E52" r:id="rId230" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/5210/5420.pdf"/>
+    <hyperlink ref="E59" r:id="rId231" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0521.pdf"/>
+    <hyperlink ref="E60" r:id="rId232" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2600.pdf"/>
     <hyperlink ref="E61:E66" r:id="rId233" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2600.pdf"/>
-    <hyperlink ref="E61" r:id="rId234"/>
-    <hyperlink ref="E62" r:id="rId235"/>
-    <hyperlink ref="E63" r:id="rId236"/>
-    <hyperlink ref="E64" r:id="rId237"/>
-    <hyperlink ref="E65" r:id="rId238"/>
-    <hyperlink ref="E66" r:id="rId239"/>
-    <hyperlink ref="E68" r:id="rId240"/>
-    <hyperlink ref="E69" r:id="rId241"/>
-    <hyperlink ref="E70" r:id="rId242"/>
-    <hyperlink ref="E71" r:id="rId243"/>
-    <hyperlink ref="E72" r:id="rId244"/>
-    <hyperlink ref="E73" r:id="rId245"/>
-    <hyperlink ref="E74" r:id="rId246"/>
-    <hyperlink ref="E75" r:id="rId247"/>
-    <hyperlink ref="E76" r:id="rId248"/>
-    <hyperlink ref="E77" r:id="rId249"/>
-    <hyperlink ref="E78" r:id="rId250"/>
-    <hyperlink ref="E79" r:id="rId251"/>
-    <hyperlink ref="E80" r:id="rId252"/>
-    <hyperlink ref="E81" r:id="rId253"/>
-    <hyperlink ref="E82" r:id="rId254"/>
-    <hyperlink ref="E83" r:id="rId255"/>
-    <hyperlink ref="E84" r:id="rId256"/>
-    <hyperlink ref="E85" r:id="rId257"/>
-    <hyperlink ref="E86" r:id="rId258"/>
-    <hyperlink ref="E87" r:id="rId259"/>
-    <hyperlink ref="E88" r:id="rId260"/>
-    <hyperlink ref="E89" r:id="rId261"/>
-    <hyperlink ref="E90" r:id="rId262"/>
-    <hyperlink ref="E91" r:id="rId263"/>
-    <hyperlink ref="E92" r:id="rId264"/>
-    <hyperlink ref="E93" r:id="rId265"/>
-    <hyperlink ref="E94" r:id="rId266"/>
-    <hyperlink ref="E95" r:id="rId267"/>
-    <hyperlink ref="E96" r:id="rId268"/>
-    <hyperlink ref="E98" r:id="rId269"/>
-    <hyperlink ref="E99" r:id="rId270"/>
-    <hyperlink ref="E100" r:id="rId271"/>
-    <hyperlink ref="E101" r:id="rId272"/>
-    <hyperlink ref="E102" r:id="rId273"/>
-    <hyperlink ref="E103" r:id="rId274"/>
-    <hyperlink ref="E104" r:id="rId275"/>
-    <hyperlink ref="E105" r:id="rId276"/>
-    <hyperlink ref="E107" r:id="rId277"/>
-    <hyperlink ref="E108" r:id="rId278"/>
+    <hyperlink ref="E61" r:id="rId234" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2640.pdf"/>
+    <hyperlink ref="E62" r:id="rId235" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2660.pdf"/>
+    <hyperlink ref="E63" r:id="rId236" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2665.pdf"/>
+    <hyperlink ref="E64" r:id="rId237" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2670.pdf"/>
+    <hyperlink ref="E65" r:id="rId238" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2720.pdf"/>
+    <hyperlink ref="E66" r:id="rId239" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/2500/2740.pdf"/>
+    <hyperlink ref="E68" r:id="rId240" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0540.pdf"/>
+    <hyperlink ref="E69" r:id="rId241" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3100.pdf"/>
+    <hyperlink ref="E70" r:id="rId242" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3110.pdf"/>
+    <hyperlink ref="E71" r:id="rId243" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3125.pdf"/>
+    <hyperlink ref="E72" r:id="rId244" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3210.pdf"/>
+    <hyperlink ref="E73" r:id="rId245" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3340.pdf"/>
+    <hyperlink ref="E74" r:id="rId246" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3360.pdf"/>
+    <hyperlink ref="E75" r:id="rId247" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3370.pdf"/>
+    <hyperlink ref="E76" r:id="rId248" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3460.pdf"/>
+    <hyperlink ref="E77" r:id="rId249" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3480.pdf"/>
+    <hyperlink ref="E78" r:id="rId250" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3540.pdf"/>
+    <hyperlink ref="E79" r:id="rId251" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3560.pdf"/>
+    <hyperlink ref="E80" r:id="rId252" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3600.pdf"/>
+    <hyperlink ref="E81" r:id="rId253" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3640.pdf"/>
+    <hyperlink ref="E82" r:id="rId254" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3720.pdf"/>
+    <hyperlink ref="E83" r:id="rId255" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3760.pdf"/>
+    <hyperlink ref="E84" r:id="rId256" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3780.pdf"/>
+    <hyperlink ref="E85" r:id="rId257" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3790.pdf"/>
+    <hyperlink ref="E86" r:id="rId258" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3810.pdf"/>
+    <hyperlink ref="E87" r:id="rId259" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3820.pdf"/>
+    <hyperlink ref="E88" r:id="rId260" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3825.pdf"/>
+    <hyperlink ref="E89" r:id="rId261" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3830.pdf"/>
+    <hyperlink ref="E90" r:id="rId262" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3835.pdf"/>
+    <hyperlink ref="E91" r:id="rId263" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3840.pdf"/>
+    <hyperlink ref="E92" r:id="rId264" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3845.pdf"/>
+    <hyperlink ref="E93" r:id="rId265" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3850.pdf"/>
+    <hyperlink ref="E94" r:id="rId266" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3855.pdf"/>
+    <hyperlink ref="E95" r:id="rId267" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3860.pdf"/>
+    <hyperlink ref="E96" r:id="rId268" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3875.pdf"/>
+    <hyperlink ref="E98" r:id="rId269" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3000/3885.pdf"/>
+    <hyperlink ref="E99" r:id="rId270" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0555.pdf"/>
+    <hyperlink ref="E100" r:id="rId271" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3900.pdf"/>
+    <hyperlink ref="E101" r:id="rId272" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3930.pdf"/>
+    <hyperlink ref="E102" r:id="rId273" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3940.pdf"/>
+    <hyperlink ref="E103" r:id="rId274" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3960.pdf"/>
+    <hyperlink ref="E104" r:id="rId275" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3970.pdf"/>
+    <hyperlink ref="E105" r:id="rId276" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/3890/3980.pdf"/>
+    <hyperlink ref="E107" r:id="rId277" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0515.pdf"/>
+    <hyperlink ref="E108" r:id="rId278" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1110.pdf"/>
     <hyperlink ref="E109:E113" r:id="rId279" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1110.pdf"/>
-    <hyperlink ref="E109" r:id="rId280"/>
-    <hyperlink ref="E110" r:id="rId281"/>
-    <hyperlink ref="E111" r:id="rId282"/>
-    <hyperlink ref="E112" r:id="rId283"/>
-    <hyperlink ref="E113" r:id="rId284"/>
-    <hyperlink ref="E115" r:id="rId285"/>
+    <hyperlink ref="E109" r:id="rId280" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1111.pdf"/>
+    <hyperlink ref="E110" r:id="rId281" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1690.pdf"/>
+    <hyperlink ref="E111" r:id="rId282" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1700.pdf"/>
+    <hyperlink ref="E112" r:id="rId283" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1701.pdf"/>
+    <hyperlink ref="E113" r:id="rId284" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/1750.pdf"/>
+    <hyperlink ref="E115" r:id="rId285" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/2100.pdf"/>
     <hyperlink ref="E116:E117" r:id="rId286" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/2100.pdf"/>
-    <hyperlink ref="E116" r:id="rId287"/>
-    <hyperlink ref="E117" r:id="rId288"/>
-    <hyperlink ref="E118" r:id="rId289"/>
-    <hyperlink ref="E119" r:id="rId290"/>
+    <hyperlink ref="E116" r:id="rId287" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/2120.pdf"/>
+    <hyperlink ref="E117" r:id="rId288" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/1000/2240.pdf"/>
+    <hyperlink ref="E118" r:id="rId289" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0559.pdf"/>
+    <hyperlink ref="E119" r:id="rId290" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7100.pdf"/>
     <hyperlink ref="E120:E123" r:id="rId291" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7100.pdf"/>
-    <hyperlink ref="E120" r:id="rId292"/>
-    <hyperlink ref="E121" r:id="rId293"/>
-    <hyperlink ref="E122" r:id="rId294"/>
-    <hyperlink ref="E123" r:id="rId295"/>
-    <hyperlink ref="E124" r:id="rId296"/>
-    <hyperlink ref="E125" r:id="rId297"/>
+    <hyperlink ref="E120" r:id="rId292" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7120.pdf"/>
+    <hyperlink ref="E121" r:id="rId293" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7300.pdf"/>
+    <hyperlink ref="E122" r:id="rId294" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7320.pdf"/>
+    <hyperlink ref="E123" r:id="rId295" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7000/7350.pdf"/>
+    <hyperlink ref="E124" r:id="rId296" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0511.pdf"/>
+    <hyperlink ref="E125" r:id="rId297" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7501.pdf"/>
     <hyperlink ref="E126:E133" r:id="rId298" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7501.pdf"/>
-    <hyperlink ref="E126" r:id="rId299"/>
-    <hyperlink ref="E127" r:id="rId300"/>
-    <hyperlink ref="E128" r:id="rId301"/>
-    <hyperlink ref="E129" r:id="rId302"/>
-    <hyperlink ref="E130" r:id="rId303"/>
-    <hyperlink ref="E131" r:id="rId304"/>
-    <hyperlink ref="E132" r:id="rId305"/>
-    <hyperlink ref="E133" r:id="rId306"/>
-    <hyperlink ref="E134" r:id="rId307"/>
-    <hyperlink ref="E135" r:id="rId308"/>
-    <hyperlink ref="E136" r:id="rId309"/>
-    <hyperlink ref="E137" r:id="rId310"/>
-    <hyperlink ref="E138" r:id="rId311"/>
-    <hyperlink ref="E139" r:id="rId312"/>
-    <hyperlink ref="E140" r:id="rId313"/>
-    <hyperlink ref="E141" r:id="rId314"/>
-    <hyperlink ref="E142" r:id="rId315"/>
-    <hyperlink ref="E143" r:id="rId316"/>
-    <hyperlink ref="E144" r:id="rId317"/>
-    <hyperlink ref="E145" r:id="rId318"/>
-    <hyperlink ref="E146" r:id="rId319"/>
-    <hyperlink ref="E147" r:id="rId320"/>
-    <hyperlink ref="E148" r:id="rId321"/>
-    <hyperlink ref="E149" r:id="rId322"/>
-    <hyperlink ref="E150" r:id="rId323"/>
-    <hyperlink ref="E151" r:id="rId324"/>
-    <hyperlink ref="E153" r:id="rId325"/>
-    <hyperlink ref="E155" r:id="rId326"/>
-    <hyperlink ref="E156" r:id="rId327"/>
-    <hyperlink ref="E157" r:id="rId328"/>
-    <hyperlink ref="E158" r:id="rId329"/>
-    <hyperlink ref="E159" r:id="rId330"/>
-    <hyperlink ref="E160" r:id="rId331"/>
-    <hyperlink ref="E161" r:id="rId332"/>
-    <hyperlink ref="E162" r:id="rId333"/>
-    <hyperlink ref="E164" r:id="rId334"/>
-    <hyperlink ref="E165" r:id="rId335"/>
-    <hyperlink ref="E166" r:id="rId336"/>
-    <hyperlink ref="E167" r:id="rId337"/>
-    <hyperlink ref="E168" r:id="rId338"/>
-    <hyperlink ref="E169" r:id="rId339"/>
-    <hyperlink ref="E170" r:id="rId340"/>
-    <hyperlink ref="E172" r:id="rId341"/>
-    <hyperlink ref="E173" r:id="rId342"/>
-    <hyperlink ref="E174" r:id="rId343"/>
-    <hyperlink ref="E175" r:id="rId344"/>
-    <hyperlink ref="E179" r:id="rId345"/>
-    <hyperlink ref="E181" r:id="rId346"/>
-    <hyperlink ref="E184" r:id="rId347"/>
-    <hyperlink ref="E185" r:id="rId348"/>
-    <hyperlink ref="E186" r:id="rId349"/>
-    <hyperlink ref="E187" r:id="rId350"/>
-    <hyperlink ref="E188" r:id="rId351"/>
-    <hyperlink ref="E189" r:id="rId352"/>
-    <hyperlink ref="E190" r:id="rId353"/>
-    <hyperlink ref="E191" r:id="rId354"/>
-    <hyperlink ref="E192" r:id="rId355"/>
-    <hyperlink ref="E193" r:id="rId356"/>
-    <hyperlink ref="E194" r:id="rId357"/>
-    <hyperlink ref="E195" r:id="rId358"/>
-    <hyperlink ref="E196" r:id="rId359"/>
-    <hyperlink ref="E197" r:id="rId360"/>
-    <hyperlink ref="E198" r:id="rId361"/>
-    <hyperlink ref="E199" r:id="rId362"/>
-    <hyperlink ref="E200" r:id="rId363"/>
-    <hyperlink ref="E201" r:id="rId364"/>
-    <hyperlink ref="E202" r:id="rId365"/>
-    <hyperlink ref="E203" r:id="rId366"/>
-    <hyperlink ref="E204" r:id="rId367"/>
-    <hyperlink ref="E205" r:id="rId368"/>
-    <hyperlink ref="E206" r:id="rId369"/>
-    <hyperlink ref="E207" r:id="rId370"/>
-    <hyperlink ref="E208" r:id="rId371"/>
-    <hyperlink ref="E209" r:id="rId372"/>
-    <hyperlink ref="E210" r:id="rId373"/>
-    <hyperlink ref="E211" r:id="rId374"/>
-    <hyperlink ref="E212" r:id="rId375"/>
-    <hyperlink ref="E213" r:id="rId376"/>
-    <hyperlink ref="E214" r:id="rId377"/>
-    <hyperlink ref="E215" r:id="rId378"/>
-    <hyperlink ref="E216" r:id="rId379"/>
-    <hyperlink ref="E217" r:id="rId380"/>
-    <hyperlink ref="E218" r:id="rId381"/>
+    <hyperlink ref="E126" r:id="rId299" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7502.pdf"/>
+    <hyperlink ref="E127" r:id="rId300" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7503.pdf"/>
+    <hyperlink ref="E128" r:id="rId301" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7730.pdf"/>
+    <hyperlink ref="E129" r:id="rId302" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7760.pdf"/>
+    <hyperlink ref="E130" r:id="rId303" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7870.pdf"/>
+    <hyperlink ref="E131" r:id="rId304" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7900.pdf"/>
+    <hyperlink ref="E132" r:id="rId305" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7910.pdf"/>
+    <hyperlink ref="E133" r:id="rId306" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/7500/7920.pdf"/>
+    <hyperlink ref="E134" r:id="rId307" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8120.pdf"/>
+    <hyperlink ref="E135" r:id="rId308" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8140.pdf"/>
+    <hyperlink ref="E136" r:id="rId309" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8260.pdf"/>
+    <hyperlink ref="E137" r:id="rId310" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/83850.pdf"/>
+    <hyperlink ref="E138" r:id="rId311" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8420.pdf"/>
+    <hyperlink ref="E139" r:id="rId312" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8570.pdf"/>
+    <hyperlink ref="E140" r:id="rId313" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8620.pdf"/>
+    <hyperlink ref="E141" r:id="rId314" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8640.pdf"/>
+    <hyperlink ref="E142" r:id="rId315" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8660.pdf"/>
+    <hyperlink ref="E143" r:id="rId316" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8780.pdf"/>
+    <hyperlink ref="E144" r:id="rId317" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8790.pdf"/>
+    <hyperlink ref="E145" r:id="rId318" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8820.pdf"/>
+    <hyperlink ref="E146" r:id="rId319" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8830.pdf"/>
+    <hyperlink ref="E147" r:id="rId320" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8855.pdf"/>
+    <hyperlink ref="E148" r:id="rId321" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8860.pdf"/>
+    <hyperlink ref="E149" r:id="rId322" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8880.pdf"/>
+    <hyperlink ref="E150" r:id="rId323" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8885.pdf"/>
+    <hyperlink ref="E151" r:id="rId324" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8940.pdf"/>
+    <hyperlink ref="E153" r:id="rId325" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/8955.pdf"/>
+    <hyperlink ref="E155" r:id="rId326" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9100.pdf"/>
+    <hyperlink ref="E156" r:id="rId327" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9210.pdf"/>
+    <hyperlink ref="E157" r:id="rId328" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9285.pdf"/>
+    <hyperlink ref="E158" r:id="rId329" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9300.pdf"/>
+    <hyperlink ref="E159" r:id="rId330" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9350.pdf"/>
+    <hyperlink ref="E160" r:id="rId331" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9600.pdf"/>
+    <hyperlink ref="E161" r:id="rId332" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9610.pdf"/>
+    <hyperlink ref="E162" r:id="rId333" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9612.pdf"/>
+    <hyperlink ref="E164" r:id="rId334" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9620.pdf"/>
+    <hyperlink ref="E165" r:id="rId335" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9625.pdf"/>
+    <hyperlink ref="E166" r:id="rId336" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9650.pdf"/>
+    <hyperlink ref="E167" r:id="rId337" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9651.pdf"/>
+    <hyperlink ref="E168" r:id="rId338" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9651.pdf"/>
+    <hyperlink ref="E169" r:id="rId339" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9670.pdf"/>
+    <hyperlink ref="E170" r:id="rId340" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9800.pdf"/>
+    <hyperlink ref="E172" r:id="rId341" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9818.pdf"/>
+    <hyperlink ref="E173" r:id="rId342" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9840.pdf"/>
+    <hyperlink ref="E174" r:id="rId343" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9860.pdf"/>
+    <hyperlink ref="E175" r:id="rId344" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9885.pdf"/>
+    <hyperlink ref="E179" r:id="rId345" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9900.pdf"/>
+    <hyperlink ref="E181" r:id="rId346" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/8000/9909.pdf"/>
+    <hyperlink ref="E184" r:id="rId347" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0110.pdf"/>
+    <hyperlink ref="E185" r:id="rId348" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0120.pdf"/>
+    <hyperlink ref="E186" r:id="rId349" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0130.pdf"/>
+    <hyperlink ref="E187" r:id="rId350" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0150.pdf"/>
+    <hyperlink ref="E188" r:id="rId351" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0160.pdf"/>
+    <hyperlink ref="E189" r:id="rId352" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0250.pdf"/>
+    <hyperlink ref="E190" r:id="rId353" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0280.pdf"/>
+    <hyperlink ref="E191" r:id="rId354" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0390.pdf"/>
+    <hyperlink ref="E192" r:id="rId355" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0500.pdf"/>
+    <hyperlink ref="E193" r:id="rId356" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0590.pdf"/>
+    <hyperlink ref="E194" r:id="rId357" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0552.pdf"/>
+    <hyperlink ref="E195" r:id="rId358" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0650.pdf"/>
+    <hyperlink ref="E196" r:id="rId359" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0690.pdf"/>
+    <hyperlink ref="E197" r:id="rId360" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0750.pdf"/>
+    <hyperlink ref="E198" r:id="rId361" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0820.pdf"/>
+    <hyperlink ref="E199" r:id="rId362" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0840.pdf"/>
+    <hyperlink ref="E200" r:id="rId363" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0845.pdf"/>
+    <hyperlink ref="E201" r:id="rId364" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0850.pdf"/>
+    <hyperlink ref="E202" r:id="rId365" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0855.pdf"/>
+    <hyperlink ref="E203" r:id="rId366" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0860.pdf"/>
+    <hyperlink ref="E204" r:id="rId367" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0890.pdf"/>
+    <hyperlink ref="E205" r:id="rId368" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0911.pdf"/>
+    <hyperlink ref="E206" r:id="rId369" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0950.pdf"/>
+    <hyperlink ref="E207" r:id="rId370" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0956.pdf"/>
+    <hyperlink ref="E208" r:id="rId371" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0959.pdf"/>
+    <hyperlink ref="E209" r:id="rId372" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0964.pdf"/>
+    <hyperlink ref="E210" r:id="rId373" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0965.pdf"/>
+    <hyperlink ref="E211" r:id="rId374" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0968.pdf"/>
+    <hyperlink ref="E212" r:id="rId375" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0971.pdf"/>
+    <hyperlink ref="E213" r:id="rId376" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0974.pdf"/>
+    <hyperlink ref="E214" r:id="rId377" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0977.pdf"/>
+    <hyperlink ref="E215" r:id="rId378" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0983.pdf"/>
+    <hyperlink ref="E216" r:id="rId379" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0984.pdf"/>
+    <hyperlink ref="E217" r:id="rId380" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0985.pdf"/>
+    <hyperlink ref="E218" r:id="rId381" display="http://www.ebudget.ca.gov/2015-16/pdf/GovernorsBudget/0010/0989.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="B23" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>